--- a/test1.xlsx
+++ b/test1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B907F22-F527-4E51-B15C-1FC6B0E9C844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD027BE-C437-488E-9FE8-D936ED89BB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
@@ -34,9 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Excel1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘿嘿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -414,6 +418,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD027BE-C437-488E-9FE8-D936ED89BB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8294082-7DD4-4DAB-A0C4-11789BABCA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
+    <workbookView xWindow="16785" yWindow="2700" windowWidth="13215" windowHeight="15435" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Excel1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>嘿嘿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -423,6 +427,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD027BE-C437-488E-9FE8-D936ED89BB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7371B9AE-5BD5-4E47-86BD-5AB2BE065AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
+    <workbookView xWindow="6525" yWindow="3345" windowWidth="20430" windowHeight="16260" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Excel1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘿嘿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -418,11 +414,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-testA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8294082-7DD4-4DAB-A0C4-11789BABCA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F75850-CB29-4B41-82C3-5A3E16AB0C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16785" yWindow="2700" windowWidth="13215" windowHeight="15435" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
+    <workbookView xWindow="6525" yWindow="3345" windowWidth="20430" windowHeight="16260" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Excel1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘿嘿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -422,16 +414,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-testA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7371B9AE-5BD5-4E47-86BD-5AB2BE065AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A915CDD6-2266-4F7B-8A4E-2625331C48E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6525" yWindow="3345" windowWidth="20430" windowHeight="16260" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
@@ -34,9 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Excel1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -414,6 +418,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-testA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-testB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A915CDD6-2266-4F7B-8A4E-2625331C48E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846AE036-848A-441F-A6A4-7872C47CAF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="3345" windowWidth="20430" windowHeight="16260" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
+    <workbookView xWindow="7215" yWindow="4035" windowWidth="20430" windowHeight="16260" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Excel1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -423,6 +427,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-testB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-testA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846AE036-848A-441F-A6A4-7872C47CAF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814D43DE-73B4-4D97-9C3F-99D4DE7AB2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="4035" windowWidth="20430" windowHeight="16260" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="16440" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Excel1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,10 @@
   </si>
   <si>
     <t>B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -432,6 +436,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
